--- a/test/20W测试计划20241116.xlsx
+++ b/test/20W测试计划20241116.xlsx
@@ -853,13 +853,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,6 +906,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1228,375 +1237,375 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="4" width="30.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="18.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="74.25" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="30.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="18.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="74.25" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="30.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="21"/>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="22"/>
     </row>
     <row r="5" ht="103" customHeight="1" spans="1:11">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>45614</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>45618</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
         <v>45614</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>45614</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>45616</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <v>45614</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <v>45616</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A11" s="15">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A11" s="18">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" ht="36" customHeight="1" spans="1:6">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:10">
-      <c r="A13" s="15">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" ht="42" customHeight="1" spans="1:6">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="96" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="90" customHeight="1" spans="1:4">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" customHeight="1" spans="4:4">
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/test/20W测试计划20241116.xlsx
+++ b/test/20W测试计划20241116.xlsx
@@ -853,16 +853,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,12 +903,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1237,375 +1228,383 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
-    <col min="2" max="4" width="30.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="18.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="74.25" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="30.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="18.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="74.25" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="30.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="22"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="5" ht="103" customHeight="1" spans="1:11">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>45614</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>45618</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <v>45614</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>45614</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>45616</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <v>45614</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>45616</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A11" s="18">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:10">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" ht="96" customHeight="1" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" ht="36" customHeight="1" spans="1:6">
-      <c r="A12" s="3">
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="2">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3" t="s">
+      <c r="B20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:10">
-      <c r="A13" s="16">
-        <v>5</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" ht="42" customHeight="1" spans="1:6">
-      <c r="A14" s="3">
-        <v>6</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="96" customHeight="1" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="3">
+    <row r="21" ht="90" customHeight="1" spans="1:4">
+      <c r="A21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" customHeight="1" spans="4:4">
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="3">
+      <c r="B23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="2">
         <v>2</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="3">
-        <v>3</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="3">
-        <v>4</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="90" customHeight="1" spans="1:4">
-      <c r="A21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" customHeight="1" spans="4:4">
-      <c r="D22" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="3">
-        <v>2</v>
-      </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/test/20W测试计划20241116.xlsx
+++ b/test/20W测试计划20241116.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>当前现状：
     问题1：测试客户端无法按预期运行(不按上报频率进行上报，日志记录对性能影响严重)，解决方案详见第一阶段
@@ -90,6 +90,9 @@
     <t>能否支持2W客户端，如果不能，需要给出能支持到多少客户端</t>
   </si>
   <si>
+    <t>杨彦平，秦凤</t>
+  </si>
+  <si>
     <t>设备绑定、设备上报两者能单独跑也能同时跑，通过配置文件可以控制</t>
   </si>
   <si>
@@ -103,13 +106,17 @@
   </si>
   <si>
     <t>客户端重连是否正常</t>
+  </si>
+  <si>
+    <t>断开运行mqtt客户端的电脑网络或重启emqx服务器，偶现客户端java虚拟机内存溢出问题，暂时无法解决(初步怀疑mqtt客户端重连代码有可能存在内存溢出的风险或者是我们没研究明白他的重连机制相关控制参数的配合使用)，经刘工上报荣工后决议，因我们只是测试下断网恢复后服务端的压力情况，所以先进行第二阶段测试，测试过程中规避这种偶现现象。尽量将keepalive的值设置大些，断网时间短些进行测试。</t>
   </si>
   <si>
     <t>第二阶段，验收。
 要求：
     1.分别模拟2W、5W、8W客户端对测试用例进行测试
     2.测试记录必须保留，cpu、内存、io、队列情况要注意观察
-    3.每一个测试阶段有疑问及时沟通。</t>
+    3.每一个测试阶段有疑问及时沟通。
+计划12月5日开始</t>
   </si>
   <si>
     <t>测试用例</t>
@@ -302,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +742,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,16 +766,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -771,95 +784,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -905,6 +921,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -913,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1227,384 +1255,411 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="4" width="30.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="2" customWidth="1"/>
-    <col min="8" max="10" width="18.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="74.25" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="30.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="3" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="18.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="74.25" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="30.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" customHeight="1" spans="1:11">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="18"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="19"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="5" ht="103" customHeight="1" spans="1:11">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="2" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <v>45614</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="15">
         <v>45618</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="15">
         <v>45614</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <v>45614</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <v>45616</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <v>45614</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="15">
         <v>45616</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A9" s="15">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="18">
+        <v>45630</v>
+      </c>
+      <c r="J9" s="18">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="18">
+        <v>45630</v>
+      </c>
+      <c r="J10" s="18">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="18">
+        <v>45630</v>
+      </c>
+      <c r="J11" s="18">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="18">
+        <v>45630</v>
+      </c>
+      <c r="J12" s="18">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:10">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="18">
+        <v>45630</v>
+      </c>
+      <c r="J13" s="18">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="87" customHeight="1" spans="1:11">
+      <c r="A14" s="19">
+        <v>6</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="24">
+        <v>45630</v>
+      </c>
+      <c r="J14" s="24">
+        <v>45630</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="96" customHeight="1" spans="1:4">
+      <c r="A15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A10" s="15">
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15" t="s">
+      <c r="B18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A11" s="15">
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15" t="s">
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="36" customHeight="1" spans="1:10">
-      <c r="A12" s="15">
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15" t="s">
+      <c r="B20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="44" customHeight="1" spans="1:10">
-      <c r="A13" s="15">
-        <v>5</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="42" customHeight="1" spans="1:10">
-      <c r="A14" s="15">
-        <v>6</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" ht="96" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="2">
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="90" customHeight="1" spans="1:4">
+      <c r="A21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" customHeight="1" spans="4:4">
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:3">
+      <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="2">
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="2">
-        <v>3</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" ht="90" customHeight="1" spans="1:4">
-      <c r="A21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" customHeight="1" spans="4:4">
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="20">
